--- a/data/trans_dic/P31_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,15%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83,05%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>82,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>85,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>83,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>89,44%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82,29%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,4; 90,62</t>
+          <t>79,79; 90,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,52; 90,26</t>
+          <t>78,78; 90,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,89; 94,62</t>
+          <t>84,64; 94,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,73; 86,58</t>
+          <t>74,41; 88,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,8; 89,14</t>
+          <t>78,84; 88,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,12; 92,23</t>
+          <t>76,66; 87,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,85; 87,48</t>
+          <t>83,2; 92,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,55; 88,5</t>
+          <t>76,01; 88,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,6; 92,56</t>
+          <t>81,13; 88,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79,36; 87,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>85,7; 92,52</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>77,13; 86,8</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>85,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>83,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>91,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>86,98%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,74; 89,11</t>
+          <t>76,17; 89,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,37; 93,17</t>
+          <t>80,17; 92,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,04; 91,45</t>
+          <t>80,53; 93,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,28; 89,96</t>
+          <t>77,83; 91,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,24; 92,15</t>
+          <t>76,34; 88,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,23; 94,9</t>
+          <t>79,76; 91,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,8; 88,29</t>
+          <t>88,17; 96,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,82; 91,59</t>
+          <t>81,85; 92,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,46; 92,35</t>
+          <t>78,42; 87,29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82,28; 90,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>86,57; 94,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>81,75; 90,78</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>83,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>87,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93,07%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>82,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>97,48%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,71; 96,53</t>
+          <t>75,41; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,12; 95,78</t>
+          <t>81,58; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,32; 95,63</t>
+          <t>61,92; 95,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,56; 92,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,5; 96,99</t>
+          <t>66,86; 92,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,76; 95,61</t>
+          <t>76,07; 97,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,57; 93,31</t>
+          <t>68,55; 93,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,79; 94,98</t>
+          <t>81,84; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,72; 93,52</t>
+          <t>77,31; 94,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83,68; 97,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>72,38; 91,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>91,34; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>84,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85,84%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,44; 89,5</t>
+          <t>81,24; 88,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,23; 90,2</t>
+          <t>82,93; 90,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,88; 92,07</t>
+          <t>84,39; 91,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,44; 86,9</t>
+          <t>80,58; 89,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,63</t>
+          <t>79,62; 87,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,86; 92,64</t>
+          <t>81,07; 88,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,28; 87,34</t>
+          <t>86,21; 92,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,41; 89,33</t>
+          <t>82,5; 89,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,89; 91,69</t>
+          <t>81,78; 87,02</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83,18; 88,8</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86,85; 91,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>82,89; 88,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,15%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>366083</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>308340</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>345013</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>398252</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>429582</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>329476</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>358250</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>425150</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>795665</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>637817</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>703262</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>823401</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>340369; 386076</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>286786; 327726</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>322323; 360758</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>364836; 432624</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>401190; 452830</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>305115; 349608</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>337358; 375112</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>387869; 449632</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>758841; 828943</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>604765; 665894</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>673867; 727471</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>771745; 868528</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>300295</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>270991</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>285245</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>336454</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>354945</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>284473</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>311486</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>366360</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>655239</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>555464</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>596731</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>702814</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>273765; 320031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>248494; 286494</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>259794; 300512</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>306425; 359805</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>324717; 378213</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>261545; 300825</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>293658; 321935</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>339086; 383543</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>615406; 685044</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>524815; 579531</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>567643; 616734</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>660508; 733514</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>92178</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>76771</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>71077</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>119398</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>82787</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>70957</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68248</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>99994</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>174966</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>147728</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>139325</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>219392</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74698; 99052</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>64937; 79603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52999; 81553</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67642; 93406</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60195; 76834</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56589; 77023</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86483; 105676</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>154795; 188817</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>132828; 154653</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>121701; 154164</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>205588; 225074</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>595.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>758555</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>656103</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>701334</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>854104</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>867314</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>684906</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>737984</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>891505</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1625870</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1341009</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1439319</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1745609</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>718995; 787575</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>624983; 685142</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>665877; 724941</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>808525; 896974</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>824383; 901650</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>652643; 714414</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>707918; 760772</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>849924; 924901</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1570389; 1671120</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1296437; 1383967</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1398403; 1476112</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1685689; 1799765</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
